--- a/biology/Botanique/Aglaonema/Aglaonema.xlsx
+++ b/biology/Botanique/Aglaonema/Aglaonema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aglaonema comprend environ 60 espèces de plantes de la famille des aracées, originaires des régions tropicales asiatiques.
 La floraison produit des spadices, inflorescences typiques de la famille des aracées, constituées comme chez les arums d'un spathe entourant un épi central: agláos signifie en grec 'beau' ou 'brillant', pendant que le mot néma ('fil') se réfère à l'épi.
